--- a/visao-2020/Eixo8_MotivoPraticaEsporte.xlsx
+++ b/visao-2020/Eixo8_MotivoPraticaEsporte.xlsx
@@ -37,10 +37,10 @@
     <t xml:space="preserve">IndicacaoMedica(%)</t>
   </si>
   <si>
-    <t xml:space="preserve">MelhorarOuManterDesenhoFisico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MelhorarOuManterDesenhoFisico(%)</t>
+    <t xml:space="preserve">MelhorarOuManterDesempenhoFisico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MelhorarOuManterDesempenhoFisico(%)</t>
   </si>
   <si>
     <t xml:space="preserve">MelhorarQualidadeVida</t>
@@ -385,28 +385,28 @@
   </sheetPr>
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2:R28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.72448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.1632653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.8520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="9.04591836734694"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="13.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="4.59183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.280612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="8.77551020408163"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="1" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="1" width="9.71938775510204"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
